--- a/EDC23通讯协议v0.2.xlsx
+++ b/EDC23通讯协议v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3579E-1752-41F4-93F0-F5093A84D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A882EA-DA01-4141-B176-F6EBF0775A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D0653F0-A5D9-46B6-BABD-EAEF7DE884CD}"/>
   </bookViews>
@@ -81,10 +81,6 @@
     <t>对方信标3距离是否有效</t>
   </si>
   <si>
-    <t>车辆目前载有金矿的数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆得分（高8位）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>A：00，B：01，C：10，D：11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车目前存有的金矿数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="F10" sqref="F10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -766,27 +766,31 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -809,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -824,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -839,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -854,27 +858,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -882,15 +880,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11">
@@ -905,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -963,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1021,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1031,7 +1029,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1054,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1069,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1084,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1099,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1114,7 +1112,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1124,7 +1122,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1147,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1162,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1177,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1192,7 +1190,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1207,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1222,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1237,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1252,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1291,10 +1289,10 @@
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,7 +1300,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1317,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1332,7 +1330,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1347,7 +1345,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1359,6 +1357,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B27:I27"/>
     <mergeCell ref="B16:I19"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B8:I8"/>
@@ -1373,27 +1391,7 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC23通讯协议v0.2.xlsx
+++ b/EDC23通讯协议v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD3B44-8DD2-4BB2-A92A-F54CE9B83391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8842DBA7-6A04-478B-B3C7-6E0E32F81336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22370" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1283,32 +1283,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B14:I17"/>
-    <mergeCell ref="B18:I21"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B11:E11"/>
@@ -1318,16 +1302,32 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B14:I17"/>
+    <mergeCell ref="B18:I21"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
